--- a/0_Fundamentals/Embedded_Qs_and_Data/0_2_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_2_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE7A7E2-77C7-4049-82B4-515B015E727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC7A3E-6FBA-49E9-BC5C-BC858095596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1680" windowWidth="19950" windowHeight="13215" activeTab="1" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="8355" yWindow="1680" windowWidth="19950" windowHeight="13215" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -243,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB244A87-0430-49B7-B256-2C95599B0B9B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,38 +581,38 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -619,10 +622,10 @@
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
@@ -631,10 +634,10 @@
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1029,16 +1032,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B344FF-76AB-42DB-AA19-DB7A3C411BDC}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="49" style="7" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -1047,24 +1050,24 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -1074,11 +1077,11 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -1088,10 +1091,10 @@
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1100,10 +1103,10 @@
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1112,10 +1115,10 @@
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_2_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_2_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC7A3E-6FBA-49E9-BC5C-BC858095596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9ACC21-6F78-415A-851F-FD3E99E5B58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1680" windowWidth="19950" windowHeight="13215" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="8355" yWindow="1680" windowWidth="19950" windowHeight="13215" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -51,11 +51,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Leeway</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -174,6 +183,81 @@
   </si>
   <si>
     <t>A viscous fluid requires a larger "push" to get the same flow.</t>
+  </si>
+  <si>
+    <t>Consider the resistance network shown in the image.  If A is twice as wide as B, and has a thermal conductivity that is 4 times larger, how does the size of the resistance of A compare to that of B?</t>
+  </si>
+  <si>
+    <t>A has a resistance that is 8 times smaller than 8</t>
+  </si>
+  <si>
+    <t>A has a resistance that is 2 times smaller than B</t>
+  </si>
+  <si>
+    <t>They have the same resistance</t>
+  </si>
+  <si>
+    <t>A has a resistance that is 2 times larger than B</t>
+  </si>
+  <si>
+    <t>A has a resistance that is 8 times larger than B</t>
+  </si>
+  <si>
+    <t>The larger width L increases the resistance (2x) but the higher thermal conductivity reduces it by a factor of 4.  Since they have the same area: R_A = L/kA = (2x)/(4x)(1) = 1/2: it has half the resistance of B.</t>
+  </si>
+  <si>
+    <t>If T1 = 100 C, T2 = 20 C, k_A = 1.0, k_B=2.5, A = 1.0, L_A = 0.5 and L_B = 0.25, what is the rate of heat transfer from the left side to the right?  All units are in metric base units (so the answer is in J/s).</t>
+  </si>
+  <si>
+    <t>Make sure you use the equation for resistance in a series</t>
+  </si>
+  <si>
+    <t>No conversions are necessary because we are using metric base units</t>
+  </si>
+  <si>
+    <t>Make sure your resistances make sense.  Will R_A or R_B be bigger?</t>
+  </si>
+  <si>
+    <t>Imagine that in the same problem that the contact between materials A and B was rough.  What would happen to the resistance and the heat rate 'q'?</t>
+  </si>
+  <si>
+    <t>R would go up, but q would go down</t>
+  </si>
+  <si>
+    <t>q would go up, but R would go down</t>
+  </si>
+  <si>
+    <t>Both q and R would go up</t>
+  </si>
+  <si>
+    <t>Both q and R would go down.</t>
+  </si>
+  <si>
+    <t>The imperfect contact would add a contact resistance: thermal energy would have trouble crossing the boundary (this is why many insulators have pockets of air or gas: gases are good insulators if they are not convecting).  This would increase the total resistance, and the heat rate would go down.</t>
+  </si>
+  <si>
+    <t>More thermal energy would flow through A</t>
+  </si>
+  <si>
+    <t>The same amount of thermal energy would flow through both materials</t>
+  </si>
+  <si>
+    <t>More thermal energy would flow through B</t>
+  </si>
+  <si>
+    <t>Now consider the parallel network shown above.  If A is half as wide as B (in the vertical direction), and has a thermal conductivity that is 4 times as big, which material would most of the thermal energy move through?</t>
+  </si>
+  <si>
+    <t>Because of its high thermal conductivity (and despite its smaller cross-sectional area), the resistance of A is smaller than B.  Therefore, it will transport more energy than B.  Think of these are pipes (or circuits): if you have a wider pipe (low resistance) and a narrow pipe (high resistance) draining a pool, more water will flow through the pipe with low resistance.</t>
+  </si>
+  <si>
+    <t>If T1 = 100 C, T2 = 20 C, k_A = 1.0, k_B=2.5, A_A = 0.5, A_B = 1.0 , L = 2.0, what is the rate of heat transfer from the left side to the right?  All units are in metric base units (so the answer is in J/s).</t>
+  </si>
+  <si>
+    <t>Make sure you use the equation for resistance in a parallel</t>
+  </si>
+  <si>
+    <t>Make sure your resistances make sense.  The overall resistance be lower than the resistance of each material, because having two possible paths for heat transfer will always offer less resistance than having just one (think of opening another lane on a highway--even if it is a slow lane, it will help!)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB244A87-0430-49B7-B256-2C95599B0B9B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -578,13 +662,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -592,54 +676,54 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -963,63 +1047,63 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1047,13 +1131,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -1061,62 +1145,62 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1128,44 +1212,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C22B9E-BAFD-4665-B848-E4D4BBDD2F16}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,41 +1294,57 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D717C-976A-40C2-8F20-6D7B2F5C7AAC}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
@@ -1234,30 +1367,59 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,7 +1431,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,24 +1442,44 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1314,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C64CEB-3B62-411B-AD41-4E5DB390DAC5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,30 +1508,46 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.05</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_2_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_2_Embedded_Qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9ACC21-6F78-415A-851F-FD3E99E5B58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC230FEB-56EA-429C-BB47-461E8DCC35A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8355" yWindow="1680" windowWidth="19950" windowHeight="13215" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
@@ -251,13 +251,13 @@
     <t>Because of its high thermal conductivity (and despite its smaller cross-sectional area), the resistance of A is smaller than B.  Therefore, it will transport more energy than B.  Think of these are pipes (or circuits): if you have a wider pipe (low resistance) and a narrow pipe (high resistance) draining a pool, more water will flow through the pipe with low resistance.</t>
   </si>
   <si>
-    <t>If T1 = 100 C, T2 = 20 C, k_A = 1.0, k_B=2.5, A_A = 0.5, A_B = 1.0 , L = 2.0, what is the rate of heat transfer from the left side to the right?  All units are in metric base units (so the answer is in J/s).</t>
-  </si>
-  <si>
     <t>Make sure you use the equation for resistance in a parallel</t>
   </si>
   <si>
     <t>Make sure your resistances make sense.  The overall resistance be lower than the resistance of each material, because having two possible paths for heat transfer will always offer less resistance than having just one (think of opening another lane on a highway--even if it is a slow lane, it will help!)</t>
+  </si>
+  <si>
+    <t>Again, consider the parallel network shown above.  If T1 = 100 C, T2 = 20 C, k_A = 1.0, k_B=2.5, A_A = 0.5, A_B = 1.0 , L = 2.0, what is the rate of heat transfer from the left side to the right?  All units are in metric base units (so the answer is in J/s).</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,9 +1508,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -1532,7 +1532,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
